--- a/public/vocabulary.xlsx
+++ b/public/vocabulary.xlsx
@@ -1,14 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/Documents/visualizacao de dados/davbot/public/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="termos" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="tecnicas" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Página1" sheetId="3" r:id="rId5"/>
+    <sheet name="termos" sheetId="1" r:id="rId1"/>
+    <sheet name="tecnicas" sheetId="2" r:id="rId2"/>
+    <sheet name="Página1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -558,33 +574,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FFFF0000"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFB7B7B7"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFB7B7B7"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -592,7 +620,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -607,6 +635,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -621,6 +650,7 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -633,367 +663,623 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="40.29"/>
-    <col customWidth="1" min="3" max="4" width="17.86"/>
-    <col customWidth="1" min="12" max="12" width="16.86"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" customWidth="1"/>
+    <col min="7" max="7" width="5.5" customWidth="1"/>
+    <col min="8" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="4.1640625" customWidth="1"/>
+    <col min="11" max="11" width="3.5" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" customWidth="1"/>
+    <col min="15" max="15" width="5" customWidth="1"/>
+    <col min="16" max="16" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1001,386 +1287,386 @@
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A44" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A45" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A46" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="9" t="s">
+    <row r="47" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A47" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A48" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A49" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A50" s="8" t="s">
         <v>111</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A54" s="8" t="s">
         <v>115</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="9" t="s">
+    <row r="55" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A55" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="9" t="s">
+    <row r="56" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="6" t="s">
+    <row r="58" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="6" t="s">
+    <row r="59" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="9" t="s">
+    <row r="60" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A60" s="8" t="s">
         <v>122</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="6" t="s">
+    <row r="61" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="9" t="s">
+    <row r="62" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A62" s="8" t="s">
         <v>124</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="6" t="s">
+    <row r="63" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="6" t="s">
+    <row r="64" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="9" t="s">
+    <row r="65" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A65" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="9" t="s">
+    <row r="66" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A66" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="9" t="s">
+    <row r="67" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A67" s="8" t="s">
         <v>128</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="9" t="s">
+    <row r="68" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A68" s="8" t="s">
         <v>129</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="6" t="s">
+    <row r="69" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A69" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="6" t="s">
+    <row r="70" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A70" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="9" t="s">
+    <row r="71" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A71" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="6" t="s">
+    <row r="72" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A72" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="9" t="s">
+    <row r="73" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A73" s="8" t="s">
         <v>135</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="6" t="s">
+    <row r="74" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A74" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="9" t="s">
+    <row r="75" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A75" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="6" t="s">
+    <row r="76" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A76" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="14" t="s">
+    <row r="77" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A77" s="13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="14" t="s">
+    <row r="78" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A78" s="13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="14" t="s">
+    <row r="79" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A79" s="13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="14" t="s">
+    <row r="80" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A80" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="14" t="s">
+    <row r="81" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A81" s="13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="14" t="s">
+    <row r="82" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A82" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="14" t="s">
+    <row r="83" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A83" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="14" t="s">
+    <row r="84" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A84" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="14" t="s">
+    <row r="85" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A85" s="13" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="14" t="s">
+    <row r="86" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A86" s="13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="14" t="s">
+    <row r="87" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A87" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="14" t="s">
+    <row r="88" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A88" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="14" t="s">
+    <row r="89" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A89" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="14" t="s">
+    <row r="90" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A90" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="14" t="s">
+    <row r="91" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A91" s="13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="14" t="s">
+    <row r="92" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A92" s="13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="14" t="s">
+    <row r="93" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A93" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="14" t="s">
+    <row r="94" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A94" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="14" t="s">
+    <row r="95" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A95" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="14" t="s">
+    <row r="96" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A96" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="14" t="s">
+    <row r="97" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A97" s="13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="14" t="s">
+    <row r="98" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A98" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="14" t="s">
+    <row r="99" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A99" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="14" t="s">
+    <row r="100" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A100" s="13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="14" t="s">
+    <row r="101" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A101" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>119</v>
       </c>
@@ -1388,7 +1674,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>163</v>
       </c>
@@ -1396,177 +1682,178 @@
         <v>97</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="14" t="s">
+    <row r="104" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A104" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="14" t="s">
+    <row r="105" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A105" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="14" t="s">
+    <row r="106" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A106" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="14" t="s">
+    <row r="107" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A107" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="14" t="s">
+    <row r="108" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A108" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="14" t="s">
+    <row r="109" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A109" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="14" t="s">
+    <row r="110" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A110" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="14" t="s">
+    <row r="111" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A111" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="14" t="s">
+    <row r="112" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A112" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="14" t="s">
+    <row r="113" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A113" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="14" t="s">
+    <row r="114" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A114" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="14" t="s">
+    <row r="115" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A115" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="14" t="s">
+    <row r="116" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A116" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="14" t="s">
+    <row r="117" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A117" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="14" t="s">
+    <row r="118" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A118" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="14" t="s">
+    <row r="119" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A119" s="13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="14" t="s">
+    <row r="120" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A120" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="14" t="s">
+    <row r="121" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A121" s="13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="14" t="s">
+    <row r="122" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A122" s="13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="14" t="s">
+    <row r="123" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A123" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="14" t="s">
+    <row r="124" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A124" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="14" t="s">
+    <row r="125" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A125" s="13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="14" t="s">
+    <row r="126" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A126" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="14" t="s">
+    <row r="127" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A127" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="14" t="s">
+    <row r="128" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A128" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="14" t="s">
+    <row r="129" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A129" s="13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="14" t="s">
+    <row r="130" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A130" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="14" t="s">
+    <row r="131" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A131" s="13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="14" t="s">
+    <row r="132" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A132" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="14" t="s">
+    <row r="133" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A133" s="13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="14" t="s">
+    <row r="134" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A134" s="13" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.43"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -1575,7 +1862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1586,7 +1873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -1595,7 +1882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -1604,7 +1891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -1613,7 +1900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1624,7 +1911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>18</v>
@@ -1633,7 +1920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
@@ -1642,7 +1929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -1651,7 +1938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1660,7 +1947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
@@ -1669,7 +1956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1680,7 +1967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>18</v>
@@ -1689,7 +1976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>21</v>
@@ -1698,7 +1985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>23</v>
@@ -1707,7 +1994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -1716,7 +2003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -1725,7 +2012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1736,7 +2023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>18</v>
@@ -1745,7 +2032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>21</v>
@@ -1754,7 +2041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>23</v>
@@ -1763,7 +2050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>14</v>
@@ -1772,7 +2059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>14</v>
@@ -1781,7 +2068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1792,7 +2079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>18</v>
@@ -1801,7 +2088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>21</v>
@@ -1810,7 +2097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>23</v>
@@ -1819,7 +2106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>14</v>
@@ -1828,7 +2115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>14</v>
@@ -1837,7 +2124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -1848,7 +2135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>18</v>
@@ -1857,7 +2144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>21</v>
@@ -1866,7 +2153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>23</v>
@@ -1875,7 +2162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>14</v>
@@ -1884,7 +2171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
@@ -1895,52 +2182,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="C37" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
-      <c r="B39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="B39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
-      <c r="B40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="7" t="s">
+      <c r="B40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>58</v>
       </c>
@@ -1951,7 +2238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>18</v>
       </c>
@@ -1959,7 +2246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
@@ -1967,7 +2254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>23</v>
       </c>
@@ -1975,7 +2262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>14</v>
       </c>
@@ -1983,7 +2270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>14</v>
       </c>
@@ -1992,21 +2279,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.86"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2017,7 +2305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2028,7 +2316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2039,7 +2327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2050,7 +2338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2061,7 +2349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2072,7 +2360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -2083,7 +2371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,7 +2382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -2105,40 +2393,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-    </row>
-    <row r="11">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
@@ -2149,7 +2437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
@@ -2160,40 +2448,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-    </row>
-    <row r="14">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>76</v>
       </c>
@@ -2204,40 +2492,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-    </row>
-    <row r="16">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>91</v>
       </c>
@@ -2248,7 +2536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>92</v>
       </c>
@@ -2259,8 +2547,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2270,8 +2558,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2281,73 +2569,73 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-    </row>
-    <row r="22">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>117</v>
       </c>
@@ -2358,8 +2646,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
         <v>119</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2369,8 +2657,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="14" t="s">
         <v>140</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2380,8 +2668,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="12" t="s">
         <v>158</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2391,41 +2679,41 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="15" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2435,7 +2723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>162</v>
       </c>
@@ -2447,6 +2735,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/vocabulary.xlsx
+++ b/public/vocabulary.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
-  <workbookPr/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/Documents/visualizacao de dados/davbot/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/Documents/visualizacao de dados/davbot-meteor/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="termos" sheetId="1" r:id="rId1"/>
     <sheet name="tecnicas" sheetId="2" r:id="rId2"/>
     <sheet name="Página1" sheetId="3" r:id="rId3"/>
+    <sheet name="termos - lucas" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="192">
   <si>
     <t>term</t>
   </si>
@@ -569,13 +570,49 @@
   </si>
   <si>
     <t>Orthogonal</t>
+  </si>
+  <si>
+    <t>Termos / Gráficos</t>
+  </si>
+  <si>
+    <t>Scatterplot</t>
+  </si>
+  <si>
+    <t>Eixo X</t>
+  </si>
+  <si>
+    <t>Eixo Y</t>
+  </si>
+  <si>
+    <t>Gráficos</t>
+  </si>
+  <si>
+    <t>Gráfico de Linha</t>
+  </si>
+  <si>
+    <t>Gráfico de Área</t>
+  </si>
+  <si>
+    <t>Gráfico de Barras</t>
+  </si>
+  <si>
+    <t>Gráfico de Barras Horizontais</t>
+  </si>
+  <si>
+    <t>Gráfico de Barras Empilhadas</t>
+  </si>
+  <si>
+    <t>Gráfico de Pizza</t>
+  </si>
+  <si>
+    <t>Gráfico de Radar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -614,8 +651,32 @@
       <color rgb="FFB7B7B7"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="0.79998168889431442"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,8 +689,20 @@
         <bgColor rgb="FF0B5394"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FF0B5394"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -665,11 +738,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -706,11 +872,135 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -985,28 +1275,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.33203125" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" customWidth="1"/>
     <col min="6" max="6" width="5.1640625" customWidth="1"/>
-    <col min="7" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="9" width="4.5" customWidth="1"/>
-    <col min="10" max="10" width="4.1640625" customWidth="1"/>
-    <col min="11" max="11" width="3.5" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" customWidth="1"/>
-    <col min="15" max="15" width="5" customWidth="1"/>
-    <col min="16" max="16" width="5.83203125" customWidth="1"/>
+    <col min="7" max="8" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" customWidth="1"/>
+    <col min="16" max="16" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.15">
@@ -1838,22 +2128,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="16" style="28" customWidth="1"/>
+    <col min="7" max="8" width="14.5" style="29"/>
+    <col min="9" max="9" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -1861,8 +2158,26 @@
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F1" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1872,8 +2187,26 @@
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -1881,8 +2214,22 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="33"/>
+      <c r="G3" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="36"/>
+      <c r="K3" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -1890,8 +2237,22 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F4" s="33"/>
+      <c r="G4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="36"/>
+      <c r="K4" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -1899,8 +2260,22 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F5" s="39"/>
+      <c r="G5" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1910,8 +2285,24 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F6" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>18</v>
@@ -1919,8 +2310,22 @@
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="33"/>
+      <c r="G7" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="46"/>
+      <c r="K7" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
@@ -1928,8 +2333,24 @@
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="33"/>
+      <c r="G8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -1937,8 +2358,22 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="33"/>
+      <c r="G9" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="36"/>
+      <c r="K9" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1946,8 +2381,22 @@
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F10" s="33"/>
+      <c r="G10" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
@@ -1955,9 +2404,23 @@
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="F11" s="39"/>
+      <c r="G11" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="36"/>
+      <c r="K11" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="27" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1966,8 +2429,24 @@
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F12" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="46"/>
+      <c r="K12" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>18</v>
@@ -1975,8 +2454,24 @@
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F13" s="33"/>
+      <c r="G13" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>21</v>
@@ -1984,8 +2479,22 @@
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F14" s="33"/>
+      <c r="G14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="33"/>
+      <c r="K14" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>23</v>
@@ -1993,8 +2502,22 @@
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="33"/>
+      <c r="G15" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="33"/>
+      <c r="K15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -2002,8 +2525,22 @@
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F16" s="33"/>
+      <c r="G16" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -2011,8 +2548,22 @@
       <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="39"/>
+      <c r="G17" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -2022,8 +2573,24 @@
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="39"/>
+      <c r="K18" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>18</v>
@@ -2031,8 +2598,24 @@
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="33"/>
+      <c r="G19" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>21</v>
@@ -2040,8 +2623,22 @@
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="33"/>
+      <c r="G20" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>23</v>
@@ -2049,8 +2646,22 @@
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="33"/>
+      <c r="G21" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>14</v>
@@ -2058,8 +2669,22 @@
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="33"/>
+      <c r="G22" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>14</v>
@@ -2067,8 +2692,22 @@
       <c r="C23" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F23" s="39"/>
+      <c r="G23" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -2078,8 +2717,15 @@
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J24" s="39"/>
+      <c r="K24" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>18</v>
@@ -2088,7 +2734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>21</v>
@@ -2097,7 +2743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>23</v>
@@ -2106,7 +2752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>14</v>
@@ -2115,7 +2761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>14</v>
@@ -2124,7 +2770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -2135,7 +2781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>18</v>
@@ -2144,7 +2790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>21</v>
@@ -2279,7 +2925,19 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="J19:J24"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="J8:J12"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2735,6 +3393,1040 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="10.83203125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="55" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="B2:K31 M2:O31">
+    <cfRule type="containsBlanks" dxfId="3" priority="3">
+      <formula>LEN(TRIM(B2))=0</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L31">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(L2))=0</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",L2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/public/vocabulary.xlsx
+++ b/public/vocabulary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="termos" sheetId="1" r:id="rId1"/>
@@ -2136,10 +2136,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A2:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2150,106 +2150,83 @@
     <col min="9" max="9" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F2" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G2" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H2" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J2" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K2" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L2" s="32" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="42" t="s">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="45" t="s">
+      <c r="G3" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>15</v>
+      <c r="L3" s="44" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="36"/>
       <c r="K4" s="34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2258,142 +2235,142 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="41" t="s">
-        <v>15</v>
+      <c r="H5" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="J6" s="36"/>
       <c r="K6" s="34" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="41" t="s">
-        <v>15</v>
+      <c r="H7" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="K8" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J8" s="46"/>
+      <c r="K8" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="35" t="s">
-        <v>15</v>
+      <c r="L9" s="44" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="34" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2402,142 +2379,142 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="J11" s="36"/>
       <c r="K11" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
+      <c r="L12" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="44" t="s">
-        <v>15</v>
+      <c r="H13" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="44" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" s="33"/>
       <c r="K15" s="37" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L15" s="38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="34" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J16" s="33"/>
       <c r="K16" s="37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2546,142 +2523,142 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="J17" s="33"/>
       <c r="K17" s="37" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="33"/>
+      <c r="K18" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="K19" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="44" t="s">
-        <v>14</v>
+      <c r="H19" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="39"/>
+      <c r="K19" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="35" t="s">
-        <v>15</v>
+      <c r="L20" s="44" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J21" s="33"/>
       <c r="K21" s="34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L21" s="35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="34" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J22" s="33"/>
       <c r="K22" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2690,75 +2667,89 @@
         <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="J23" s="33"/>
       <c r="K23" s="34" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L23" s="35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="39"/>
-      <c r="K24" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2767,101 +2758,101 @@
         <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>14</v>
+      <c r="B37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2870,50 +2861,51 @@
         <v>14</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -2921,19 +2913,27 @@
         <v>14</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="J19:J24"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="J3:J8"/>
+    <mergeCell ref="J9:J13"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
